--- a/CBregs.xlsx
+++ b/CBregs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delgadokp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC5E919-C210-4214-8BF1-6E32B97754DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5DF91-E8F5-44AB-BB27-F8AEAF24CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
   </bookViews>
@@ -429,1654 +429,1654 @@
     <t>FRM01</t>
   </si>
   <si>
+    <t>Brunei Darussalam Central Bank (BDCB)</t>
+  </si>
+  <si>
+    <t>Notice on Reporting of Fraud Incidents (BU/N-3/2022)</t>
+  </si>
+  <si>
+    <t>Requires board-approved fraud policies, response plans, and incident reporting within specified timelines.</t>
+  </si>
+  <si>
+    <t>Banks and Islamic banks; payment system operators</t>
+  </si>
+  <si>
+    <t>Fraud governance, monitoring, response playbooks</t>
+  </si>
+  <si>
+    <t>Improves consumer confidence via mandatory reporting and remediation</t>
+  </si>
+  <si>
+    <t>TRM/Cyber guidance supports stronger controls (e.g., MFA)</t>
+  </si>
+  <si>
+    <t>Notify quickly; formal report within days (per notice)</t>
+  </si>
+  <si>
+    <t>Classification, timeline, impact, actions, remediation</t>
+  </si>
+  <si>
+    <t>Directives, administrative measures, potential restrictions</t>
+  </si>
+  <si>
+    <t>https://cms.bdcb.gov.bn/storage/uploads/regulations/2022-10-03_1664761898.pdf</t>
+  </si>
+  <si>
+    <t>FRM02</t>
+  </si>
+  <si>
+    <t>Cyber Security Guidelines (1/2017; updated 2018)</t>
+  </si>
+  <si>
+    <t>Security and monitoring expectations that support fraud prevention and response.</t>
+  </si>
+  <si>
+    <t>Banks; system operators</t>
+  </si>
+  <si>
+    <t>Security baselines; monitoring; IR</t>
+  </si>
+  <si>
+    <t>Indirect consumer protection through safer systems</t>
+  </si>
+  <si>
+    <t>Access controls, monitoring tooling</t>
+  </si>
+  <si>
+    <t>Incident response expectations</t>
+  </si>
+  <si>
+    <t>Supervisory directions</t>
+  </si>
+  <si>
+    <t>https://bdcb.gov.bn</t>
+  </si>
+  <si>
+    <t>FRM03</t>
+  </si>
+  <si>
+    <t>National Bank of Cambodia (NBC)</t>
+  </si>
+  <si>
+    <t>Prakas on Control of Systemic Risk of Payment Systems (No.B7-10-593)</t>
+  </si>
+  <si>
+    <t>Requires payment system operators to manage systemic and operational risks and follow NBC oversight and reporting expectations.</t>
+  </si>
+  <si>
+    <t>Clearing and settlement systems; PSPs</t>
+  </si>
+  <si>
+    <t>Governance, risk controls, contingency</t>
+  </si>
+  <si>
+    <t>Safety and reliability of payment services</t>
+  </si>
+  <si>
+    <t>Security/BCP controls</t>
+  </si>
+  <si>
+    <t>Incident escalation to NBC (system rules)</t>
+  </si>
+  <si>
+    <t>No public template</t>
+  </si>
+  <si>
+    <t>Event description, impact, mitigation</t>
+  </si>
+  <si>
+    <t>Suspension/revocation/fines under NBC powers</t>
+  </si>
+  <si>
+    <t>https://www.nbc.gov.kh/download_files/legislation/prakas_eng/Prakas-on-Control-of-Systemic-Risk-of-Payment-Systems.pdf</t>
+  </si>
+  <si>
+    <t>FRM04</t>
+  </si>
+  <si>
+    <t>Prakas on Payment Systems Risk Management (referenced)</t>
+  </si>
+  <si>
+    <t>Requires risk controls and incident handling for payment operators (detail depends on NBC instruments).</t>
+  </si>
+  <si>
+    <t>Payment system operators</t>
+  </si>
+  <si>
+    <t>Risk management, controls</t>
+  </si>
+  <si>
+    <t>Indirect consumer protection</t>
+  </si>
+  <si>
+    <t>Security measures</t>
+  </si>
+  <si>
+    <t>Reporting as instructed</t>
+  </si>
+  <si>
+    <t>Supervisory actions</t>
+  </si>
+  <si>
+    <t>FRM05</t>
+  </si>
+  <si>
+    <t>Bank Indonesia (BI)</t>
+  </si>
+  <si>
+    <t>PBI No. 2/2024 on Information System Security &amp; Cyber Resilience</t>
+  </si>
+  <si>
+    <t>Requires governance, prevention/detection/response/recovery for cyber and operational incidents that include fraud vectors.</t>
+  </si>
+  <si>
+    <t>PJP/PIP; payment infrastructures</t>
+  </si>
+  <si>
+    <t>Monitoring, resilience, response</t>
+  </si>
+  <si>
+    <t>Indirect—reduces fraud exposure</t>
+  </si>
+  <si>
+    <t>Strong security baselines</t>
+  </si>
+  <si>
+    <t>Incident reporting to BI</t>
+  </si>
+  <si>
+    <t>Yes (BI forms)</t>
+  </si>
+  <si>
+    <t>Incident summary, impact, actions</t>
+  </si>
+  <si>
+    <t>Administrative sanctions</t>
+  </si>
+  <si>
+    <t>https://www.bi.go.id/id/publikasi/peraturan/Documents/PBI_022024.pdf</t>
+  </si>
+  <si>
+    <t>FRM06</t>
+  </si>
+  <si>
+    <t>PADG No. 24/2024 (implementation guidance for KKS)</t>
+  </si>
+  <si>
+    <t>Operationalizes cyber resilience controls including incident handling/reporting for regulated payment participants.</t>
+  </si>
+  <si>
+    <t>PJP/PIP; infrastructures</t>
+  </si>
+  <si>
+    <t>Monitoring, detection, response</t>
+  </si>
+  <si>
+    <t>Indirect</t>
+  </si>
+  <si>
+    <t>Security baselines</t>
+  </si>
+  <si>
+    <t>Report incidents per PADG</t>
+  </si>
+  <si>
+    <t>Event details, impact, mitigation</t>
+  </si>
+  <si>
+    <t>BI sanctions</t>
+  </si>
+  <si>
+    <t>https://www.bi.go.id/id/publikasi/peraturan/Documents/PADG_242024.pdf</t>
+  </si>
+  <si>
+    <t>FRM07</t>
+  </si>
+  <si>
+    <t>PBI No.22/23/PBI/2020 on Payment Systems</t>
+  </si>
+  <si>
+    <t>Requires payment system risk management, including fraud/operational risk controls and reporting.</t>
+  </si>
+  <si>
+    <t>PJP/PIP</t>
+  </si>
+  <si>
+    <t>Governance, risk controls</t>
+  </si>
+  <si>
+    <t>Security controls</t>
+  </si>
+  <si>
+    <t>Reporting obligations</t>
+  </si>
+  <si>
+    <t>https://www.bi.go.id/en/publikasi/peraturan/Pages/PBI_222321.aspx</t>
+  </si>
+  <si>
+    <t>FRM08</t>
+  </si>
+  <si>
+    <t>PADG No. 1/2025 on BI-FAST (incl. fraud controls)</t>
+  </si>
+  <si>
+    <t>Requires participants to respond to alerts, operate fraud controls; 2025 updates include central FDS expectations.</t>
+  </si>
+  <si>
+    <t>BI-FAST participants</t>
+  </si>
+  <si>
+    <t>Fraud monitoring/FDS</t>
+  </si>
+  <si>
+    <t>Analytics, monitoring</t>
+  </si>
+  <si>
+    <t>Incident workflows/reporting</t>
+  </si>
+  <si>
+    <t>Alert/event data, actions</t>
+  </si>
+  <si>
+    <t>https://www.bi.go.id/id/publikasi/peraturan/Pages/PADG_012025.aspx</t>
+  </si>
+  <si>
+    <t>FRM09</t>
+  </si>
+  <si>
+    <t>PADG No. 14/2025 (BI-FAST amendments)</t>
+  </si>
+  <si>
+    <t>Enhances fraud controls and operating requirements for BI-FAST participants.</t>
+  </si>
+  <si>
+    <t>FDS/monitoring</t>
+  </si>
+  <si>
+    <t>Analytics</t>
+  </si>
+  <si>
+    <t>Reporting per BI-FAST rules</t>
+  </si>
+  <si>
+    <t>Incident/alert details</t>
+  </si>
+  <si>
+    <t>https://www.bi.go.id/id/publikasi/peraturan/Pages/PADG_142025.aspx</t>
+  </si>
+  <si>
+    <t>FRM10</t>
+  </si>
+  <si>
+    <t>Otoritas Jasa Keuangan (OJK)</t>
+  </si>
+  <si>
+    <t>POJK No.12/POJK.03/2024 Anti-Fraud Strategy</t>
+  </si>
+  <si>
+    <t>Requires institution-wide anti-fraud strategy across prevention/detection/investigation/monitoring.</t>
+  </si>
+  <si>
+    <t>OJK-supervised FIs</t>
+  </si>
+  <si>
+    <t>Anti-fraud governance</t>
+  </si>
+  <si>
+    <t>Controls per FI</t>
+  </si>
+  <si>
+    <t>Reporting significant fraud</t>
+  </si>
+  <si>
+    <t>Yes (per OJK regime)</t>
+  </si>
+  <si>
+    <t>Case/impact/actions</t>
+  </si>
+  <si>
+    <t>OJK administrative sanctions</t>
+  </si>
+  <si>
+    <t>https://www.ojk.go.id/id/regulasi/Documents/Pages/Penerapan-Strategi-Anti-Fraud-Bagi-Lembaga-Jasa-Keuangan/POJK%2012%20Tahun%202024%20Penerapan%20Strategi%20Anti%20Fraud%20bagi%20Lembaga%20Jasa%20Keuangan.pdf</t>
+  </si>
+  <si>
+    <t>FRM11</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>National Assembly; Bank of the Lao PDR (BOL)</t>
+  </si>
+  <si>
+    <t>Law on Payment System (Amended) No. 32/NA</t>
+  </si>
+  <si>
+    <t>Establishes payment safety requirements including security/risk management and incident handling.</t>
+  </si>
+  <si>
+    <t>Payment systems/services</t>
+  </si>
+  <si>
+    <t>Safety/security obligations</t>
+  </si>
+  <si>
+    <t>Reporting to BOL (details in regulations)</t>
+  </si>
+  <si>
+    <t>Penalties/revocation</t>
+  </si>
+  <si>
+    <t>https://laoofficialgazette.gov.la/assets/upload/1582403145.pdf</t>
+  </si>
+  <si>
+    <t>FRM12</t>
+  </si>
+  <si>
+    <t>Bank Negara Malaysia (BNM)</t>
+  </si>
+  <si>
+    <t>Risk Management in Technology (RMiT)</t>
+  </si>
+  <si>
+    <t>Requires technology/cyber controls including monitoring and incident response supporting fraud risk management.</t>
+  </si>
+  <si>
+    <t>Licensed FIs; payment operators</t>
+  </si>
+  <si>
+    <t>Monitoring, controls</t>
+  </si>
+  <si>
+    <t>MFA, secure ops</t>
+  </si>
+  <si>
+    <t>Notify BNM within 24h for significant incidents</t>
+  </si>
+  <si>
+    <t>Yes (BNM incident reporting)</t>
+  </si>
+  <si>
+    <t>Event, impact, actions</t>
+  </si>
+  <si>
+    <t>https://fast.bnm.gov.my/fastweb/public/files/PolicyDocumentOnRMiT_20200707.pdf</t>
+  </si>
+  <si>
+    <t>FRM13</t>
+  </si>
+  <si>
+    <t>Policy on Fraud Risk Management (Exposure Draft)</t>
+  </si>
+  <si>
+    <t>Proposes/sets expectations for enterprise fraud risk governance and control environment.</t>
+  </si>
+  <si>
+    <t>FIs (intended)</t>
+  </si>
+  <si>
+    <t>Fraud frameworks</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Reporting expectations</t>
+  </si>
+  <si>
+    <t>Supervisory expectations</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my</t>
+  </si>
+  <si>
+    <t>FRM14</t>
+  </si>
+  <si>
+    <t>Central Bank of Myanmar (CBM)</t>
+  </si>
+  <si>
+    <t>Mobile Financial Services Regulations</t>
+  </si>
+  <si>
+    <t>Requires security controls, fraud monitoring, customer protection mechanisms, and reporting to CBM.</t>
+  </si>
+  <si>
+    <t>MFS providers</t>
+  </si>
+  <si>
+    <t>Agent oversight; monitoring</t>
+  </si>
+  <si>
+    <t>Complaint/assistance requirements</t>
+  </si>
+  <si>
+    <t>PIN/credential controls</t>
+  </si>
+  <si>
+    <t>Incident reporting to CBM</t>
+  </si>
+  <si>
+    <t>Provider/event/impact/actions</t>
+  </si>
+  <si>
+    <t>Suspension/revocation</t>
+  </si>
+  <si>
+    <t>https://www.cbm.gov.mm/sites/default/files/Mobile_Financial_Services.pdf</t>
+  </si>
+  <si>
+    <t>FRM15</t>
+  </si>
+  <si>
+    <t>Cybersecurity Framework / Guidance (referenced)</t>
+  </si>
+  <si>
+    <t>Security expectations supporting fraud prevention/response (public availability varies).</t>
+  </si>
+  <si>
+    <t>FIs</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>FRM16</t>
+  </si>
+  <si>
+    <t>Bangko Sentral ng Pilipinas (BSP)</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 1140 (IT Risk; includes fraud monitoring)</t>
+  </si>
+  <si>
+    <t>Requires stronger IT controls, monitoring, and response for fraud/cyber risks.</t>
+  </si>
+  <si>
+    <t>BSFIs; PSPs</t>
+  </si>
+  <si>
+    <t>Fraud monitoring; response</t>
+  </si>
+  <si>
+    <t>Strong authentication measures</t>
+  </si>
+  <si>
+    <t>Timely notification to BSP</t>
+  </si>
+  <si>
+    <t>Incident summary/impact/actions</t>
+  </si>
+  <si>
+    <t>Fines/suspension</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Issuances/2022/1140.pdf</t>
+  </si>
+  <si>
+    <t>FRM17</t>
+  </si>
+  <si>
+    <t>BSP Memorandum M-2022-015 (Enhanced fraud monitoring)</t>
+  </si>
+  <si>
+    <t>Enhances monitoring and response expectations for digital payments fraud.</t>
+  </si>
+  <si>
+    <t>Monitoring/alerts</t>
+  </si>
+  <si>
+    <t>MFA, monitoring</t>
+  </si>
+  <si>
+    <t>Reporting to BSP</t>
+  </si>
+  <si>
+    <t>Supervisory action</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph</t>
+  </si>
+  <si>
+    <t>FRM18</t>
+  </si>
+  <si>
+    <t>Monetary Authority of Singapore (MAS)</t>
+  </si>
+  <si>
+    <t>Guidelines on Shared Responsibility Framework for Scams (consultation / policy)</t>
+  </si>
+  <si>
+    <t>Clarifies responsibilities among customers and institutions to prevent scams and address losses.</t>
+  </si>
+  <si>
+    <t>Banks/PSPs</t>
+  </si>
+  <si>
+    <t>Preventive duties; shared liability</t>
+  </si>
+  <si>
+    <t>Direct scam-loss protection focus</t>
+  </si>
+  <si>
+    <t>Notifications/controls</t>
+  </si>
+  <si>
+    <t>Operational coordination</t>
+  </si>
+  <si>
+    <t>Yes (structured)</t>
+  </si>
+  <si>
+    <t>Claim details/actions/outcome</t>
+  </si>
+  <si>
+    <t>Supervisory directions/penalties</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/-/media/mas-media-library/publications/consultations/2023-july-21-srf/SRF-Consultation-Paper.pdf</t>
+  </si>
+  <si>
+    <t>FRM19</t>
+  </si>
+  <si>
+    <t>Bank of Thailand (BOT)</t>
+  </si>
+  <si>
+    <t>IT Security in Payment Systems Notification (SorNorChor. 16/2561)</t>
+  </si>
+  <si>
+    <t>Requires IT security policies, audits, access controls, and incident response for payment systems.</t>
+  </si>
+  <si>
+    <t>Payment systems/providers</t>
+  </si>
+  <si>
+    <t>Preventive/detective controls</t>
+  </si>
+  <si>
+    <t>Security/access controls</t>
+  </si>
+  <si>
+    <t>Report major incidents to BOT</t>
+  </si>
+  <si>
+    <t>Incident type/impact/actions</t>
+  </si>
+  <si>
+    <t>Fines/orders/suspension</t>
+  </si>
+  <si>
+    <t>https://www.bot.or.th/content/dam/bot/fipcs/document-type/notification/2561/EngPDF/25610510.pdf</t>
+  </si>
+  <si>
+    <t>FRM20</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Banco Central de Timor-Leste (BCTL)</t>
+  </si>
+  <si>
+    <t>Decree-Law No. 17/2015 on National Payment System (fraud provisions)</t>
+  </si>
+  <si>
+    <t>Establishes oversight and obligations to operate securely and report incidents.</t>
+  </si>
+  <si>
+    <t>Payment systems</t>
+  </si>
+  <si>
+    <t>Legal obligations</t>
+  </si>
+  <si>
+    <t>Reporting to BCTL</t>
+  </si>
+  <si>
+    <t>Sanctions/revocation</t>
+  </si>
+  <si>
+    <t>https://www.bancocentral.tl/uploads/documentos/2015-08-17%20Law%20No.%2017_2015.pdf</t>
+  </si>
+  <si>
+    <t>FRM21</t>
+  </si>
+  <si>
+    <t>State Bank of Vietnam (SBV)</t>
+  </si>
+  <si>
+    <t>Circular No. 35/2016/TT-NHNN (payment safety &amp; confidentiality)</t>
+  </si>
+  <si>
+    <t>Sets technical/admin controls to protect transactions and customer info; supports fraud prevention and reporting.</t>
+  </si>
+  <si>
+    <t>Banks; payment intermediaries</t>
+  </si>
+  <si>
+    <t>Monitoring; controls</t>
+  </si>
+  <si>
+    <t>Authentication controls</t>
+  </si>
+  <si>
+    <t>Reporting to SBV</t>
+  </si>
+  <si>
+    <t>Yes (formats in circulars)</t>
+  </si>
+  <si>
+    <t>Institution/event/impact/actions</t>
+  </si>
+  <si>
+    <t>https://www.sbv.gov.vn/webcenter/portal/en/home/news/legaldocuments/circulars</t>
+  </si>
+  <si>
+    <t>FRM22</t>
+  </si>
+  <si>
+    <t>Circular No. 9/2023/TT-NHNN (operational risk in payments)</t>
+  </si>
+  <si>
+    <t>Requires operational risk frameworks including fraud and cyber incident handling in payment activities.</t>
+  </si>
+  <si>
+    <t>Governance/monitoring</t>
+  </si>
+  <si>
+    <t>Stronger identity/auth</t>
+  </si>
+  <si>
+    <t>Incident details/mitigation</t>
+  </si>
+  <si>
+    <t>Sanctions</t>
+  </si>
+  <si>
+    <t>Regulation / Legal Instrument</t>
+  </si>
+  <si>
+    <t>Consumer Protection Focus</t>
+  </si>
+  <si>
+    <t>Key Consumer Rights</t>
+  </si>
+  <si>
+    <t>Disclosure Requirements</t>
+  </si>
+  <si>
+    <t>Complaint Handling</t>
+  </si>
+  <si>
+    <t>Liability / Redress</t>
+  </si>
+  <si>
+    <t>Enforcement Measures</t>
+  </si>
+  <si>
+    <t>CP-SG-01</t>
+  </si>
+  <si>
+    <t>Safeguarding of customer funds; fair conduct</t>
+  </si>
+  <si>
+    <t>Safeguarding of float, transparency</t>
+  </si>
+  <si>
+    <t>Fees, terms, risks</t>
+  </si>
+  <si>
+    <t>Mandatory dispute handling</t>
+  </si>
+  <si>
+    <t>Refunds; compensation orders</t>
+  </si>
+  <si>
+    <t>Directions, penalties</t>
+  </si>
+  <si>
+    <t>CP-SG-02</t>
+  </si>
+  <si>
+    <t>E-Payments User Protection Guidelines</t>
+  </si>
+  <si>
+    <t>Protection against unauthorised transactions</t>
+  </si>
+  <si>
+    <t>Liability caps; error resolution</t>
+  </si>
+  <si>
+    <t>Rights &amp; obligations disclosure</t>
+  </si>
+  <si>
+    <t>Defined timelines</t>
+  </si>
+  <si>
+    <t>Loss sharing rules</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/regulation/guidelines/e-payments-user-protection-guidelines</t>
+  </si>
+  <si>
+    <t>CP-MY-01</t>
+  </si>
+  <si>
+    <t>Fair treatment; market conduct</t>
+  </si>
+  <si>
+    <t>Right to redress; transparency</t>
+  </si>
+  <si>
+    <t>Product disclosure sheets</t>
+  </si>
+  <si>
+    <t>Mandatory complaints unit</t>
+  </si>
+  <si>
+    <t>Compensation; restitution</t>
+  </si>
+  <si>
+    <t>Civil &amp; admin penalties</t>
+  </si>
+  <si>
+    <t>CP-MY-02</t>
+  </si>
+  <si>
+    <t>Policy Document on Fair Treatment of Financial Consumers</t>
+  </si>
+  <si>
+    <t>Fair outcomes &amp; suitability</t>
+  </si>
+  <si>
+    <t>Clear information; fairness</t>
+  </si>
+  <si>
+    <t>Plain-language disclosures</t>
+  </si>
+  <si>
+    <t>Standardised handling</t>
+  </si>
+  <si>
+    <t>Remedies &amp; redress</t>
+  </si>
+  <si>
+    <t>Supervisory sanctions</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/documents/20124/938039/Fair_Treatment_Financial_Consumers.pdf</t>
+  </si>
+  <si>
+    <t>CP-PH-01</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 1048 (Consumer Protection Framework)</t>
+  </si>
+  <si>
+    <t>Fairness; protection of depositors &amp; users</t>
+  </si>
+  <si>
+    <t>Right to information &amp; redress</t>
+  </si>
+  <si>
+    <t>Pricing &amp; terms</t>
+  </si>
+  <si>
+    <t>Internal &amp; BSP escalation</t>
+  </si>
+  <si>
+    <t>Refunds; penalties</t>
+  </si>
+  <si>
+    <t>Fines; suspension</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Issuances/2019/1048.pdf</t>
+  </si>
+  <si>
+    <t>CP-PH-02</t>
+  </si>
+  <si>
+    <t>Safety &amp; efficiency of payments</t>
+  </si>
+  <si>
+    <t>Reliable service access</t>
+  </si>
+  <si>
+    <t>System rules disclosure</t>
+  </si>
+  <si>
+    <t>Operator dispute rules</t>
+  </si>
+  <si>
+    <t>Corrective measures</t>
+  </si>
+  <si>
+    <t>Registration revocation</t>
+  </si>
+  <si>
+    <t>CP-ID-01</t>
+  </si>
+  <si>
+    <t>PBI No. 22/23/PBI/2020 on Payment Systems</t>
+  </si>
+  <si>
+    <t>User protection &amp; transparency</t>
+  </si>
+  <si>
+    <t>Fair access; complaint rights</t>
+  </si>
+  <si>
+    <t>Fees, risks</t>
+  </si>
+  <si>
+    <t>Complaint mechanism</t>
+  </si>
+  <si>
+    <t>Refunds</t>
+  </si>
+  <si>
+    <t>CP-ID-02</t>
+  </si>
+  <si>
+    <t>PADG No. 21/18/PADG/2019 (Consumer protection in payments)</t>
+  </si>
+  <si>
+    <t>Payment user protection</t>
+  </si>
+  <si>
+    <t>Right to complaint &amp; info</t>
+  </si>
+  <si>
+    <t>Service disclosures</t>
+  </si>
+  <si>
+    <t>Timely resolution</t>
+  </si>
+  <si>
+    <t>Compensation</t>
+  </si>
+  <si>
+    <t>Admin sanctions</t>
+  </si>
+  <si>
+    <t>CP-TH-01</t>
+  </si>
+  <si>
+    <t>User protection &amp; system safety</t>
+  </si>
+  <si>
+    <t>Service continuity</t>
+  </si>
+  <si>
+    <t>Fees &amp; risks</t>
+  </si>
+  <si>
+    <t>Dispute resolution</t>
+  </si>
+  <si>
+    <t>Corrective actions</t>
+  </si>
+  <si>
+    <t>CP-TH-02</t>
+  </si>
+  <si>
+    <t>Notification on Market Conduct for Payment Services</t>
+  </si>
+  <si>
+    <t>Fair treatment</t>
+  </si>
+  <si>
+    <t>Transparency; fairness</t>
+  </si>
+  <si>
+    <t>Clear disclosures</t>
+  </si>
+  <si>
+    <t>Complaints handling</t>
+  </si>
+  <si>
+    <t>Customer remedies</t>
+  </si>
+  <si>
+    <t>CP-VN-01</t>
+  </si>
+  <si>
+    <t>Protection of payment users</t>
+  </si>
+  <si>
+    <t>Transparency; service quality</t>
+  </si>
+  <si>
+    <t>Fees &amp; terms</t>
+  </si>
+  <si>
+    <t>Complaint resolution</t>
+  </si>
+  <si>
+    <t>Penalties</t>
+  </si>
+  <si>
+    <t>CP-VN-02</t>
+  </si>
+  <si>
+    <t>Circular 39/2014/TT-NHNN</t>
+  </si>
+  <si>
+    <t>Consumer rights in payments</t>
+  </si>
+  <si>
+    <t>Information access</t>
+  </si>
+  <si>
+    <t>Disclosure duties</t>
+  </si>
+  <si>
+    <t>Complaint timelines</t>
+  </si>
+  <si>
+    <t>CP-KH-01</t>
+  </si>
+  <si>
+    <t>Law on Banking and Financial Institutions</t>
+  </si>
+  <si>
+    <t>Depositor &amp; user protection</t>
+  </si>
+  <si>
+    <t>Right to information</t>
+  </si>
+  <si>
+    <t>Product transparency</t>
+  </si>
+  <si>
+    <t>Complaint handling</t>
+  </si>
+  <si>
+    <t>Redress</t>
+  </si>
+  <si>
+    <t>Fines; revocation</t>
+  </si>
+  <si>
+    <t>CP-LA-01</t>
+  </si>
+  <si>
+    <t>Law on Commercial Banks</t>
+  </si>
+  <si>
+    <t>Customer protection</t>
+  </si>
+  <si>
+    <t>Disclosure</t>
+  </si>
+  <si>
+    <t>Complaints</t>
+  </si>
+  <si>
+    <t>Remedies</t>
+  </si>
+  <si>
+    <t>CP-BN-01</t>
+  </si>
+  <si>
+    <t>Banking Order 2006</t>
+  </si>
+  <si>
+    <t>Consumer fairness</t>
+  </si>
+  <si>
+    <t>Transparency</t>
+  </si>
+  <si>
+    <t>Enforcement</t>
+  </si>
+  <si>
+    <t>CP-MM-01</t>
+  </si>
+  <si>
+    <t>Protection of mobile money users</t>
+  </si>
+  <si>
+    <t>Transaction transparency</t>
+  </si>
+  <si>
+    <t>Fees disclosure</t>
+  </si>
+  <si>
+    <t>Complaint procedures</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Data Governance Scope</t>
+  </si>
+  <si>
+    <t>Data Classification / Ownership</t>
+  </si>
+  <si>
+    <t>Data Security Requirements</t>
+  </si>
+  <si>
+    <t>Data Localisation</t>
+  </si>
+  <si>
+    <t>Access &amp; Sharing Rules</t>
+  </si>
+  <si>
+    <t>Breach Notification</t>
+  </si>
+  <si>
+    <t>Enforcement / Sanctions</t>
+  </si>
+  <si>
+    <t>DG-SG-01</t>
+  </si>
+  <si>
+    <t>Technology Risk Management (TRM) Guidelines</t>
+  </si>
+  <si>
+    <t>Financial institutions &amp; payment service providers</t>
+  </si>
+  <si>
+    <t>Institution accountable for customer data</t>
+  </si>
+  <si>
+    <t>Encryption, access controls, logging</t>
+  </si>
+  <si>
+    <t>No blanket localisation</t>
+  </si>
+  <si>
+    <t>Controlled sharing with safeguards</t>
+  </si>
+  <si>
+    <t>Yes – material incidents</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/regulation/guidelines/technology-risk-management-guidelines</t>
+  </si>
+  <si>
+    <t>DG-SG-02</t>
+  </si>
+  <si>
+    <t>Notice PSN06 on Cyber Hygiene</t>
+  </si>
+  <si>
+    <t>Payment service licensees</t>
+  </si>
+  <si>
+    <t>Licensee responsibility</t>
+  </si>
+  <si>
+    <t>MFA, patching, monitoring</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Limited access; least privilege</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/regulation/notices/psn06-cyber-hygiene</t>
+  </si>
+  <si>
+    <t>DG-MY-01</t>
+  </si>
+  <si>
+    <t>Licensed FIs &amp; PSPs</t>
+  </si>
+  <si>
+    <t>FI retains data accountability</t>
+  </si>
+  <si>
+    <t>Encryption, DR, access control</t>
+  </si>
+  <si>
+    <t>Conditional localisation</t>
+  </si>
+  <si>
+    <t>Sharing subject to BNM approval</t>
+  </si>
+  <si>
+    <t>Yes – within 24h</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/documents/20124/938039/PolicyDocumentOnRMiT_20200707.pdf</t>
+  </si>
+  <si>
+    <t>DG-MY-02</t>
+  </si>
+  <si>
+    <t>PD on Management of Customer Information &amp; Permitted Disclosures</t>
+  </si>
+  <si>
+    <t>Customer financial information</t>
+  </si>
+  <si>
+    <t>Bank ownership with confidentiality duty</t>
+  </si>
+  <si>
+    <t>Safeguards mandated</t>
+  </si>
+  <si>
+    <t>Disclosure only as permitted</t>
+  </si>
+  <si>
+    <t>DG-PH-01</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 1122 (Data Governance)</t>
+  </si>
+  <si>
+    <t>BSFIs &amp; payment operators</t>
+  </si>
+  <si>
+    <t>Board-level accountability</t>
+  </si>
+  <si>
+    <t>Data classification, encryption</t>
+  </si>
+  <si>
+    <t>Controlled data sharing</t>
+  </si>
+  <si>
+    <t>Fines, restrictions</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Issuances/2021/1122.pdf</t>
+  </si>
+  <si>
+    <t>DG-PH-02</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 982 (IT Risk Management)</t>
+  </si>
+  <si>
+    <t>Financial institutions</t>
+  </si>
+  <si>
+    <t>Institutional accountability</t>
+  </si>
+  <si>
+    <t>Security &amp; access controls</t>
+  </si>
+  <si>
+    <t>Subject to BSP rules</t>
+  </si>
+  <si>
+    <t>DG-ID-01</t>
+  </si>
+  <si>
+    <t>Payment service providers</t>
+  </si>
+  <si>
+    <t>PSP accountable</t>
+  </si>
+  <si>
+    <t>Data security &amp; audit</t>
+  </si>
+  <si>
+    <t>Partial (system-based)</t>
+  </si>
+  <si>
+    <t>BI approval required</t>
+  </si>
+  <si>
+    <t>DG-ID-02</t>
+  </si>
+  <si>
+    <t>PBI No. 24/2024 on Cyber Resilience</t>
+  </si>
+  <si>
+    <t>PJP &amp; payment infrastructure</t>
+  </si>
+  <si>
+    <t>Operator accountability</t>
+  </si>
+  <si>
+    <t>Encryption, SOC, DR</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Regulator-approved sharing</t>
+  </si>
+  <si>
+    <t>DG-TH-01</t>
+  </si>
+  <si>
+    <t>Notification on IT Risk Management</t>
+  </si>
+  <si>
+    <t>Payment operators &amp; banks</t>
+  </si>
+  <si>
+    <t>Operator responsibility</t>
+  </si>
+  <si>
+    <t>Controlled access</t>
+  </si>
+  <si>
+    <t>Fines/orders</t>
+  </si>
+  <si>
+    <t>DG-TH-02</t>
+  </si>
+  <si>
+    <t>Personal Data Protection Act (as applied to FIs)</t>
+  </si>
+  <si>
+    <t>Financial service providers</t>
+  </si>
+  <si>
+    <t>Data subject rights recognised</t>
+  </si>
+  <si>
+    <t>Security safeguards</t>
+  </si>
+  <si>
+    <t>Consent-based sharing</t>
+  </si>
+  <si>
+    <t>Civil/admin penalties</t>
+  </si>
+  <si>
+    <t>DG-VN-01</t>
+  </si>
+  <si>
+    <t>Circular No. 09/2020/TT-NHNN</t>
+  </si>
+  <si>
+    <t>Banks &amp; PSPs</t>
+  </si>
+  <si>
+    <t>Institution responsible</t>
+  </si>
+  <si>
+    <t>Access control, encryption</t>
+  </si>
+  <si>
+    <t>Yes (conditional)</t>
+  </si>
+  <si>
+    <t>SBV approval</t>
+  </si>
+  <si>
+    <t>DG-VN-02</t>
+  </si>
+  <si>
+    <t>Decree 53/2022/ND-CP (Cybersecurity)</t>
+  </si>
+  <si>
+    <t>Financial &amp; digital services</t>
+  </si>
+  <si>
+    <t>Security &amp; audit</t>
+  </si>
+  <si>
+    <t>Restricted cross-border transfer</t>
+  </si>
+  <si>
+    <t>DG-KH-01</t>
+  </si>
+  <si>
+    <t>Prakas on Cybersecurity for Banking Institutions</t>
+  </si>
+  <si>
+    <t>Security frameworks</t>
+  </si>
+  <si>
+    <t>Regulated sharing</t>
+  </si>
+  <si>
+    <t>DG-LA-01</t>
+  </si>
+  <si>
+    <t>Decision on IT &amp; Cybersecurity Management</t>
+  </si>
+  <si>
+    <t>Security &amp; DR</t>
+  </si>
+  <si>
+    <t>Controlled sharing</t>
+  </si>
+  <si>
+    <t>DG-BN-01</t>
+  </si>
+  <si>
+    <t>Guidelines on IT Risk Management</t>
+  </si>
+  <si>
+    <t>Restricted sharing</t>
+  </si>
+  <si>
+    <t>Enforcement actions</t>
+  </si>
+  <si>
+    <t>DG-MM-01</t>
+  </si>
+  <si>
+    <t>Cybersecurity Guidelines for Financial Institutions</t>
+  </si>
+  <si>
+    <t>Banks &amp; MFS providers</t>
+  </si>
+  <si>
+    <t>Regulator-approved</t>
+  </si>
+  <si>
+    <t>Covered Entities</t>
+  </si>
+  <si>
+    <t>Core AML-CFT Obligations</t>
+  </si>
+  <si>
+    <t>KYC / CDD Requirements</t>
+  </si>
+  <si>
+    <t>Ongoing Monitoring</t>
+  </si>
+  <si>
+    <t>STR / CTR Reporting</t>
+  </si>
+  <si>
+    <t>Sanctions / Enforcement</t>
+  </si>
+  <si>
+    <t>AML-SG-01</t>
+  </si>
+  <si>
+    <t>Notice PSN01 on Prevention of ML/TF</t>
+  </si>
+  <si>
+    <t>Risk-based AML-CFT program</t>
+  </si>
+  <si>
+    <t>Full CDD, enhanced CDD for high-risk</t>
+  </si>
+  <si>
+    <t>Transaction &amp; behaviour monitoring</t>
+  </si>
+  <si>
+    <t>STR to STRO; CTR as required</t>
+  </si>
+  <si>
+    <t>Civil penalties; licence action</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/regulation/notices/psn01-prevention-of-money-laundering-and-countering-the-financing-of-terrorism</t>
+  </si>
+  <si>
+    <t>AML-SG-02</t>
+  </si>
+  <si>
+    <t>Notice 626 on AML-CFT</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Risk assessment, governance</t>
+  </si>
+  <si>
+    <t>CDD, beneficial ownership</t>
+  </si>
+  <si>
+    <t>Continuous monitoring</t>
+  </si>
+  <si>
+    <t>STR to STRO</t>
+  </si>
+  <si>
+    <t>Financial penalties</t>
+  </si>
+  <si>
+    <t>https://www.mas.gov.sg/regulation/notices/notice-626</t>
+  </si>
+  <si>
+    <t>AML-MY-01</t>
+  </si>
+  <si>
+    <t>AMLA 2001 (as administered by BNM)</t>
+  </si>
+  <si>
+    <t>Reporting institutions</t>
+  </si>
+  <si>
+    <t>Risk-based AML program</t>
+  </si>
+  <si>
+    <t>CDD, BO identification</t>
+  </si>
+  <si>
+    <t>Ongoing due diligence</t>
+  </si>
+  <si>
+    <t>STR / CTR to FIU</t>
+  </si>
+  <si>
+    <t>Fines; licence revocation</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/amlcft</t>
+  </si>
+  <si>
+    <t>AML-MY-02</t>
+  </si>
+  <si>
+    <t>Policy Document on AML-CFT (Digital CDD)</t>
+  </si>
+  <si>
+    <t>FIs &amp; PSPs</t>
+  </si>
+  <si>
+    <t>Technology-enabled AML</t>
+  </si>
+  <si>
+    <t>e-KYC with safeguards</t>
+  </si>
+  <si>
+    <t>Monitoring</t>
+  </si>
+  <si>
+    <t>STR to FIU</t>
+  </si>
+  <si>
+    <t>https://www.bnm.gov.my/documents/20124/938039/AML_CFT_Policy_Document.pdf</t>
+  </si>
+  <si>
+    <t>AML-PH-01</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 1022 (AML Rules)</t>
+  </si>
+  <si>
+    <t>BSP-supervised FIs</t>
+  </si>
+  <si>
+    <t>AML systems &amp; controls</t>
+  </si>
+  <si>
+    <t>STR / CTR to AMLC</t>
+  </si>
+  <si>
+    <t>Monetary penalties</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Issuances/2018/1022.pdf</t>
+  </si>
+  <si>
+    <t>AML-PH-02</t>
+  </si>
+  <si>
+    <t>BSP Circular No. 1108 (Virtual Assets)</t>
+  </si>
+  <si>
+    <t>VASPs</t>
+  </si>
+  <si>
+    <t>AML for digital assets</t>
+  </si>
+  <si>
+    <t>CDD incl. VASP-specific</t>
+  </si>
+  <si>
+    <t>Transaction monitoring</t>
+  </si>
+  <si>
+    <t>STR / CTR</t>
+  </si>
+  <si>
+    <t>https://www.bsp.gov.ph/Regulations/Issuances/2021/1108.pdf</t>
+  </si>
+  <si>
+    <t>AML-ID-01</t>
+  </si>
+  <si>
+    <t>PBI No. 19/10/PBI/2017 on AML-CFT</t>
+  </si>
+  <si>
+    <t>Payment system providers</t>
+  </si>
+  <si>
+    <t>Risk-based AML</t>
+  </si>
+  <si>
+    <t>CDD, BO</t>
+  </si>
+  <si>
+    <t>STR to PPATK</t>
+  </si>
+  <si>
+    <t>AML-ID-02</t>
+  </si>
+  <si>
+    <t>PBI No. 23/6/PBI/2021 (Payment Systems)</t>
+  </si>
+  <si>
+    <t>PJP / PIP</t>
+  </si>
+  <si>
+    <t>AML-CFT compliance</t>
+  </si>
+  <si>
+    <t>Tiered CDD</t>
+  </si>
+  <si>
+    <t>AML-TH-01</t>
+  </si>
+  <si>
+    <t>Notification on AML-CFT for Payment Services</t>
+  </si>
+  <si>
+    <t>PSPs</t>
+  </si>
+  <si>
+    <t>AML controls &amp; reporting</t>
+  </si>
+  <si>
+    <t>CDD / ECDD</t>
+  </si>
+  <si>
+    <t>STR to AMLO</t>
+  </si>
+  <si>
+    <t>AML-TH-02</t>
+  </si>
+  <si>
+    <t>Payment operators</t>
+  </si>
+  <si>
+    <t>Compliance with AML laws</t>
+  </si>
+  <si>
+    <t>CDD alignment</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>STR as required</t>
+  </si>
+  <si>
+    <t>Legal sanctions</t>
+  </si>
+  <si>
+    <t>AML-VN-01</t>
+  </si>
+  <si>
+    <t>Circular No. 09/2023/TT-NHNN</t>
+  </si>
+  <si>
+    <t>Fines</t>
+  </si>
+  <si>
+    <t>AML-VN-02</t>
+  </si>
+  <si>
+    <t>Law on AML (as implemented by SBV)</t>
+  </si>
+  <si>
+    <t>Reporting entities</t>
+  </si>
+  <si>
+    <t>National AML framework</t>
+  </si>
+  <si>
+    <t>Administrative penalties</t>
+  </si>
+  <si>
+    <t>AML-KH-01</t>
+  </si>
+  <si>
+    <t>Prakas on AML-CFT for Banks &amp; FIs</t>
+  </si>
+  <si>
+    <t>CDD</t>
+  </si>
+  <si>
+    <t>STR to CAFIU</t>
+  </si>
+  <si>
+    <t>Licence action</t>
+  </si>
+  <si>
+    <t>AML-LA-01</t>
+  </si>
+  <si>
+    <t>AML Law No. 50/NA</t>
+  </si>
+  <si>
+    <t>AML compliance</t>
+  </si>
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>AML-BN-01</t>
+  </si>
+  <si>
+    <t>AML Order 2012 (administered by AMBD)</t>
+  </si>
+  <si>
+    <t>AML governance</t>
+  </si>
+  <si>
+    <t>AML-MM-01</t>
+  </si>
+  <si>
+    <t>AML Law (as enforced by CBM)</t>
+  </si>
+  <si>
+    <t>AML programs</t>
+  </si>
+  <si>
     <t>Brunei Darussalam</t>
-  </si>
-  <si>
-    <t>Brunei Darussalam Central Bank (BDCB)</t>
-  </si>
-  <si>
-    <t>Notice on Reporting of Fraud Incidents (BU/N-3/2022)</t>
-  </si>
-  <si>
-    <t>Requires board-approved fraud policies, response plans, and incident reporting within specified timelines.</t>
-  </si>
-  <si>
-    <t>Banks and Islamic banks; payment system operators</t>
-  </si>
-  <si>
-    <t>Fraud governance, monitoring, response playbooks</t>
-  </si>
-  <si>
-    <t>Improves consumer confidence via mandatory reporting and remediation</t>
-  </si>
-  <si>
-    <t>TRM/Cyber guidance supports stronger controls (e.g., MFA)</t>
-  </si>
-  <si>
-    <t>Notify quickly; formal report within days (per notice)</t>
-  </si>
-  <si>
-    <t>Classification, timeline, impact, actions, remediation</t>
-  </si>
-  <si>
-    <t>Directives, administrative measures, potential restrictions</t>
-  </si>
-  <si>
-    <t>https://cms.bdcb.gov.bn/storage/uploads/regulations/2022-10-03_1664761898.pdf</t>
-  </si>
-  <si>
-    <t>FRM02</t>
-  </si>
-  <si>
-    <t>Cyber Security Guidelines (1/2017; updated 2018)</t>
-  </si>
-  <si>
-    <t>Security and monitoring expectations that support fraud prevention and response.</t>
-  </si>
-  <si>
-    <t>Banks; system operators</t>
-  </si>
-  <si>
-    <t>Security baselines; monitoring; IR</t>
-  </si>
-  <si>
-    <t>Indirect consumer protection through safer systems</t>
-  </si>
-  <si>
-    <t>Access controls, monitoring tooling</t>
-  </si>
-  <si>
-    <t>Incident response expectations</t>
-  </si>
-  <si>
-    <t>Supervisory directions</t>
-  </si>
-  <si>
-    <t>https://bdcb.gov.bn</t>
-  </si>
-  <si>
-    <t>FRM03</t>
-  </si>
-  <si>
-    <t>National Bank of Cambodia (NBC)</t>
-  </si>
-  <si>
-    <t>Prakas on Control of Systemic Risk of Payment Systems (No.B7-10-593)</t>
-  </si>
-  <si>
-    <t>Requires payment system operators to manage systemic and operational risks and follow NBC oversight and reporting expectations.</t>
-  </si>
-  <si>
-    <t>Clearing and settlement systems; PSPs</t>
-  </si>
-  <si>
-    <t>Governance, risk controls, contingency</t>
-  </si>
-  <si>
-    <t>Safety and reliability of payment services</t>
-  </si>
-  <si>
-    <t>Security/BCP controls</t>
-  </si>
-  <si>
-    <t>Incident escalation to NBC (system rules)</t>
-  </si>
-  <si>
-    <t>No public template</t>
-  </si>
-  <si>
-    <t>Event description, impact, mitigation</t>
-  </si>
-  <si>
-    <t>Suspension/revocation/fines under NBC powers</t>
-  </si>
-  <si>
-    <t>https://www.nbc.gov.kh/download_files/legislation/prakas_eng/Prakas-on-Control-of-Systemic-Risk-of-Payment-Systems.pdf</t>
-  </si>
-  <si>
-    <t>FRM04</t>
-  </si>
-  <si>
-    <t>Prakas on Payment Systems Risk Management (referenced)</t>
-  </si>
-  <si>
-    <t>Requires risk controls and incident handling for payment operators (detail depends on NBC instruments).</t>
-  </si>
-  <si>
-    <t>Payment system operators</t>
-  </si>
-  <si>
-    <t>Risk management, controls</t>
-  </si>
-  <si>
-    <t>Indirect consumer protection</t>
-  </si>
-  <si>
-    <t>Security measures</t>
-  </si>
-  <si>
-    <t>Reporting as instructed</t>
-  </si>
-  <si>
-    <t>Supervisory actions</t>
-  </si>
-  <si>
-    <t>FRM05</t>
-  </si>
-  <si>
-    <t>Bank Indonesia (BI)</t>
-  </si>
-  <si>
-    <t>PBI No. 2/2024 on Information System Security &amp; Cyber Resilience</t>
-  </si>
-  <si>
-    <t>Requires governance, prevention/detection/response/recovery for cyber and operational incidents that include fraud vectors.</t>
-  </si>
-  <si>
-    <t>PJP/PIP; payment infrastructures</t>
-  </si>
-  <si>
-    <t>Monitoring, resilience, response</t>
-  </si>
-  <si>
-    <t>Indirect—reduces fraud exposure</t>
-  </si>
-  <si>
-    <t>Strong security baselines</t>
-  </si>
-  <si>
-    <t>Incident reporting to BI</t>
-  </si>
-  <si>
-    <t>Yes (BI forms)</t>
-  </si>
-  <si>
-    <t>Incident summary, impact, actions</t>
-  </si>
-  <si>
-    <t>Administrative sanctions</t>
-  </si>
-  <si>
-    <t>https://www.bi.go.id/id/publikasi/peraturan/Documents/PBI_022024.pdf</t>
-  </si>
-  <si>
-    <t>FRM06</t>
-  </si>
-  <si>
-    <t>PADG No. 24/2024 (implementation guidance for KKS)</t>
-  </si>
-  <si>
-    <t>Operationalizes cyber resilience controls including incident handling/reporting for regulated payment participants.</t>
-  </si>
-  <si>
-    <t>PJP/PIP; infrastructures</t>
-  </si>
-  <si>
-    <t>Monitoring, detection, response</t>
-  </si>
-  <si>
-    <t>Indirect</t>
-  </si>
-  <si>
-    <t>Security baselines</t>
-  </si>
-  <si>
-    <t>Report incidents per PADG</t>
-  </si>
-  <si>
-    <t>Event details, impact, mitigation</t>
-  </si>
-  <si>
-    <t>BI sanctions</t>
-  </si>
-  <si>
-    <t>https://www.bi.go.id/id/publikasi/peraturan/Documents/PADG_242024.pdf</t>
-  </si>
-  <si>
-    <t>FRM07</t>
-  </si>
-  <si>
-    <t>PBI No.22/23/PBI/2020 on Payment Systems</t>
-  </si>
-  <si>
-    <t>Requires payment system risk management, including fraud/operational risk controls and reporting.</t>
-  </si>
-  <si>
-    <t>PJP/PIP</t>
-  </si>
-  <si>
-    <t>Governance, risk controls</t>
-  </si>
-  <si>
-    <t>Security controls</t>
-  </si>
-  <si>
-    <t>Reporting obligations</t>
-  </si>
-  <si>
-    <t>https://www.bi.go.id/en/publikasi/peraturan/Pages/PBI_222321.aspx</t>
-  </si>
-  <si>
-    <t>FRM08</t>
-  </si>
-  <si>
-    <t>PADG No. 1/2025 on BI-FAST (incl. fraud controls)</t>
-  </si>
-  <si>
-    <t>Requires participants to respond to alerts, operate fraud controls; 2025 updates include central FDS expectations.</t>
-  </si>
-  <si>
-    <t>BI-FAST participants</t>
-  </si>
-  <si>
-    <t>Fraud monitoring/FDS</t>
-  </si>
-  <si>
-    <t>Analytics, monitoring</t>
-  </si>
-  <si>
-    <t>Incident workflows/reporting</t>
-  </si>
-  <si>
-    <t>Alert/event data, actions</t>
-  </si>
-  <si>
-    <t>https://www.bi.go.id/id/publikasi/peraturan/Pages/PADG_012025.aspx</t>
-  </si>
-  <si>
-    <t>FRM09</t>
-  </si>
-  <si>
-    <t>PADG No. 14/2025 (BI-FAST amendments)</t>
-  </si>
-  <si>
-    <t>Enhances fraud controls and operating requirements for BI-FAST participants.</t>
-  </si>
-  <si>
-    <t>FDS/monitoring</t>
-  </si>
-  <si>
-    <t>Analytics</t>
-  </si>
-  <si>
-    <t>Reporting per BI-FAST rules</t>
-  </si>
-  <si>
-    <t>Incident/alert details</t>
-  </si>
-  <si>
-    <t>https://www.bi.go.id/id/publikasi/peraturan/Pages/PADG_142025.aspx</t>
-  </si>
-  <si>
-    <t>FRM10</t>
-  </si>
-  <si>
-    <t>Otoritas Jasa Keuangan (OJK)</t>
-  </si>
-  <si>
-    <t>POJK No.12/POJK.03/2024 Anti-Fraud Strategy</t>
-  </si>
-  <si>
-    <t>Requires institution-wide anti-fraud strategy across prevention/detection/investigation/monitoring.</t>
-  </si>
-  <si>
-    <t>OJK-supervised FIs</t>
-  </si>
-  <si>
-    <t>Anti-fraud governance</t>
-  </si>
-  <si>
-    <t>Controls per FI</t>
-  </si>
-  <si>
-    <t>Reporting significant fraud</t>
-  </si>
-  <si>
-    <t>Yes (per OJK regime)</t>
-  </si>
-  <si>
-    <t>Case/impact/actions</t>
-  </si>
-  <si>
-    <t>OJK administrative sanctions</t>
-  </si>
-  <si>
-    <t>https://www.ojk.go.id/id/regulasi/Documents/Pages/Penerapan-Strategi-Anti-Fraud-Bagi-Lembaga-Jasa-Keuangan/POJK%2012%20Tahun%202024%20Penerapan%20Strategi%20Anti%20Fraud%20bagi%20Lembaga%20Jasa%20Keuangan.pdf</t>
-  </si>
-  <si>
-    <t>FRM11</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>National Assembly; Bank of the Lao PDR (BOL)</t>
-  </si>
-  <si>
-    <t>Law on Payment System (Amended) No. 32/NA</t>
-  </si>
-  <si>
-    <t>Establishes payment safety requirements including security/risk management and incident handling.</t>
-  </si>
-  <si>
-    <t>Payment systems/services</t>
-  </si>
-  <si>
-    <t>Safety/security obligations</t>
-  </si>
-  <si>
-    <t>Reporting to BOL (details in regulations)</t>
-  </si>
-  <si>
-    <t>Penalties/revocation</t>
-  </si>
-  <si>
-    <t>https://laoofficialgazette.gov.la/assets/upload/1582403145.pdf</t>
-  </si>
-  <si>
-    <t>FRM12</t>
-  </si>
-  <si>
-    <t>Bank Negara Malaysia (BNM)</t>
-  </si>
-  <si>
-    <t>Risk Management in Technology (RMiT)</t>
-  </si>
-  <si>
-    <t>Requires technology/cyber controls including monitoring and incident response supporting fraud risk management.</t>
-  </si>
-  <si>
-    <t>Licensed FIs; payment operators</t>
-  </si>
-  <si>
-    <t>Monitoring, controls</t>
-  </si>
-  <si>
-    <t>MFA, secure ops</t>
-  </si>
-  <si>
-    <t>Notify BNM within 24h for significant incidents</t>
-  </si>
-  <si>
-    <t>Yes (BNM incident reporting)</t>
-  </si>
-  <si>
-    <t>Event, impact, actions</t>
-  </si>
-  <si>
-    <t>https://fast.bnm.gov.my/fastweb/public/files/PolicyDocumentOnRMiT_20200707.pdf</t>
-  </si>
-  <si>
-    <t>FRM13</t>
-  </si>
-  <si>
-    <t>Policy on Fraud Risk Management (Exposure Draft)</t>
-  </si>
-  <si>
-    <t>Proposes/sets expectations for enterprise fraud risk governance and control environment.</t>
-  </si>
-  <si>
-    <t>FIs (intended)</t>
-  </si>
-  <si>
-    <t>Fraud frameworks</t>
-  </si>
-  <si>
-    <t>Controls</t>
-  </si>
-  <si>
-    <t>Reporting expectations</t>
-  </si>
-  <si>
-    <t>Supervisory expectations</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my</t>
-  </si>
-  <si>
-    <t>FRM14</t>
-  </si>
-  <si>
-    <t>Central Bank of Myanmar (CBM)</t>
-  </si>
-  <si>
-    <t>Mobile Financial Services Regulations</t>
-  </si>
-  <si>
-    <t>Requires security controls, fraud monitoring, customer protection mechanisms, and reporting to CBM.</t>
-  </si>
-  <si>
-    <t>MFS providers</t>
-  </si>
-  <si>
-    <t>Agent oversight; monitoring</t>
-  </si>
-  <si>
-    <t>Complaint/assistance requirements</t>
-  </si>
-  <si>
-    <t>PIN/credential controls</t>
-  </si>
-  <si>
-    <t>Incident reporting to CBM</t>
-  </si>
-  <si>
-    <t>Provider/event/impact/actions</t>
-  </si>
-  <si>
-    <t>Suspension/revocation</t>
-  </si>
-  <si>
-    <t>https://www.cbm.gov.mm/sites/default/files/Mobile_Financial_Services.pdf</t>
-  </si>
-  <si>
-    <t>FRM15</t>
-  </si>
-  <si>
-    <t>Cybersecurity Framework / Guidance (referenced)</t>
-  </si>
-  <si>
-    <t>Security expectations supporting fraud prevention/response (public availability varies).</t>
-  </si>
-  <si>
-    <t>FIs</t>
-  </si>
-  <si>
-    <t>Reporting</t>
-  </si>
-  <si>
-    <t>FRM16</t>
-  </si>
-  <si>
-    <t>Bangko Sentral ng Pilipinas (BSP)</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 1140 (IT Risk; includes fraud monitoring)</t>
-  </si>
-  <si>
-    <t>Requires stronger IT controls, monitoring, and response for fraud/cyber risks.</t>
-  </si>
-  <si>
-    <t>BSFIs; PSPs</t>
-  </si>
-  <si>
-    <t>Fraud monitoring; response</t>
-  </si>
-  <si>
-    <t>Strong authentication measures</t>
-  </si>
-  <si>
-    <t>Timely notification to BSP</t>
-  </si>
-  <si>
-    <t>Incident summary/impact/actions</t>
-  </si>
-  <si>
-    <t>Fines/suspension</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Issuances/2022/1140.pdf</t>
-  </si>
-  <si>
-    <t>FRM17</t>
-  </si>
-  <si>
-    <t>BSP Memorandum M-2022-015 (Enhanced fraud monitoring)</t>
-  </si>
-  <si>
-    <t>Enhances monitoring and response expectations for digital payments fraud.</t>
-  </si>
-  <si>
-    <t>Monitoring/alerts</t>
-  </si>
-  <si>
-    <t>MFA, monitoring</t>
-  </si>
-  <si>
-    <t>Reporting to BSP</t>
-  </si>
-  <si>
-    <t>Supervisory action</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph</t>
-  </si>
-  <si>
-    <t>FRM18</t>
-  </si>
-  <si>
-    <t>Monetary Authority of Singapore (MAS)</t>
-  </si>
-  <si>
-    <t>Guidelines on Shared Responsibility Framework for Scams (consultation / policy)</t>
-  </si>
-  <si>
-    <t>Clarifies responsibilities among customers and institutions to prevent scams and address losses.</t>
-  </si>
-  <si>
-    <t>Banks/PSPs</t>
-  </si>
-  <si>
-    <t>Preventive duties; shared liability</t>
-  </si>
-  <si>
-    <t>Direct scam-loss protection focus</t>
-  </si>
-  <si>
-    <t>Notifications/controls</t>
-  </si>
-  <si>
-    <t>Operational coordination</t>
-  </si>
-  <si>
-    <t>Yes (structured)</t>
-  </si>
-  <si>
-    <t>Claim details/actions/outcome</t>
-  </si>
-  <si>
-    <t>Supervisory directions/penalties</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/-/media/mas-media-library/publications/consultations/2023-july-21-srf/SRF-Consultation-Paper.pdf</t>
-  </si>
-  <si>
-    <t>FRM19</t>
-  </si>
-  <si>
-    <t>Bank of Thailand (BOT)</t>
-  </si>
-  <si>
-    <t>IT Security in Payment Systems Notification (SorNorChor. 16/2561)</t>
-  </si>
-  <si>
-    <t>Requires IT security policies, audits, access controls, and incident response for payment systems.</t>
-  </si>
-  <si>
-    <t>Payment systems/providers</t>
-  </si>
-  <si>
-    <t>Preventive/detective controls</t>
-  </si>
-  <si>
-    <t>Security/access controls</t>
-  </si>
-  <si>
-    <t>Report major incidents to BOT</t>
-  </si>
-  <si>
-    <t>Incident type/impact/actions</t>
-  </si>
-  <si>
-    <t>Fines/orders/suspension</t>
-  </si>
-  <si>
-    <t>https://www.bot.or.th/content/dam/bot/fipcs/document-type/notification/2561/EngPDF/25610510.pdf</t>
-  </si>
-  <si>
-    <t>FRM20</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Banco Central de Timor-Leste (BCTL)</t>
-  </si>
-  <si>
-    <t>Decree-Law No. 17/2015 on National Payment System (fraud provisions)</t>
-  </si>
-  <si>
-    <t>Establishes oversight and obligations to operate securely and report incidents.</t>
-  </si>
-  <si>
-    <t>Payment systems</t>
-  </si>
-  <si>
-    <t>Legal obligations</t>
-  </si>
-  <si>
-    <t>Reporting to BCTL</t>
-  </si>
-  <si>
-    <t>Sanctions/revocation</t>
-  </si>
-  <si>
-    <t>https://www.bancocentral.tl/uploads/documentos/2015-08-17%20Law%20No.%2017_2015.pdf</t>
-  </si>
-  <si>
-    <t>FRM21</t>
-  </si>
-  <si>
-    <t>State Bank of Vietnam (SBV)</t>
-  </si>
-  <si>
-    <t>Circular No. 35/2016/TT-NHNN (payment safety &amp; confidentiality)</t>
-  </si>
-  <si>
-    <t>Sets technical/admin controls to protect transactions and customer info; supports fraud prevention and reporting.</t>
-  </si>
-  <si>
-    <t>Banks; payment intermediaries</t>
-  </si>
-  <si>
-    <t>Monitoring; controls</t>
-  </si>
-  <si>
-    <t>Authentication controls</t>
-  </si>
-  <si>
-    <t>Reporting to SBV</t>
-  </si>
-  <si>
-    <t>Yes (formats in circulars)</t>
-  </si>
-  <si>
-    <t>Institution/event/impact/actions</t>
-  </si>
-  <si>
-    <t>https://www.sbv.gov.vn/webcenter/portal/en/home/news/legaldocuments/circulars</t>
-  </si>
-  <si>
-    <t>FRM22</t>
-  </si>
-  <si>
-    <t>Circular No. 9/2023/TT-NHNN (operational risk in payments)</t>
-  </si>
-  <si>
-    <t>Requires operational risk frameworks including fraud and cyber incident handling in payment activities.</t>
-  </si>
-  <si>
-    <t>Governance/monitoring</t>
-  </si>
-  <si>
-    <t>Stronger identity/auth</t>
-  </si>
-  <si>
-    <t>Incident details/mitigation</t>
-  </si>
-  <si>
-    <t>Sanctions</t>
-  </si>
-  <si>
-    <t>Regulation / Legal Instrument</t>
-  </si>
-  <si>
-    <t>Consumer Protection Focus</t>
-  </si>
-  <si>
-    <t>Key Consumer Rights</t>
-  </si>
-  <si>
-    <t>Disclosure Requirements</t>
-  </si>
-  <si>
-    <t>Complaint Handling</t>
-  </si>
-  <si>
-    <t>Liability / Redress</t>
-  </si>
-  <si>
-    <t>Enforcement Measures</t>
-  </si>
-  <si>
-    <t>CP-SG-01</t>
-  </si>
-  <si>
-    <t>Safeguarding of customer funds; fair conduct</t>
-  </si>
-  <si>
-    <t>Safeguarding of float, transparency</t>
-  </si>
-  <si>
-    <t>Fees, terms, risks</t>
-  </si>
-  <si>
-    <t>Mandatory dispute handling</t>
-  </si>
-  <si>
-    <t>Refunds; compensation orders</t>
-  </si>
-  <si>
-    <t>Directions, penalties</t>
-  </si>
-  <si>
-    <t>CP-SG-02</t>
-  </si>
-  <si>
-    <t>E-Payments User Protection Guidelines</t>
-  </si>
-  <si>
-    <t>Protection against unauthorised transactions</t>
-  </si>
-  <si>
-    <t>Liability caps; error resolution</t>
-  </si>
-  <si>
-    <t>Rights &amp; obligations disclosure</t>
-  </si>
-  <si>
-    <t>Defined timelines</t>
-  </si>
-  <si>
-    <t>Loss sharing rules</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/regulation/guidelines/e-payments-user-protection-guidelines</t>
-  </si>
-  <si>
-    <t>CP-MY-01</t>
-  </si>
-  <si>
-    <t>Fair treatment; market conduct</t>
-  </si>
-  <si>
-    <t>Right to redress; transparency</t>
-  </si>
-  <si>
-    <t>Product disclosure sheets</t>
-  </si>
-  <si>
-    <t>Mandatory complaints unit</t>
-  </si>
-  <si>
-    <t>Compensation; restitution</t>
-  </si>
-  <si>
-    <t>Civil &amp; admin penalties</t>
-  </si>
-  <si>
-    <t>CP-MY-02</t>
-  </si>
-  <si>
-    <t>Policy Document on Fair Treatment of Financial Consumers</t>
-  </si>
-  <si>
-    <t>Fair outcomes &amp; suitability</t>
-  </si>
-  <si>
-    <t>Clear information; fairness</t>
-  </si>
-  <si>
-    <t>Plain-language disclosures</t>
-  </si>
-  <si>
-    <t>Standardised handling</t>
-  </si>
-  <si>
-    <t>Remedies &amp; redress</t>
-  </si>
-  <si>
-    <t>Supervisory sanctions</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my/documents/20124/938039/Fair_Treatment_Financial_Consumers.pdf</t>
-  </si>
-  <si>
-    <t>CP-PH-01</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 1048 (Consumer Protection Framework)</t>
-  </si>
-  <si>
-    <t>Fairness; protection of depositors &amp; users</t>
-  </si>
-  <si>
-    <t>Right to information &amp; redress</t>
-  </si>
-  <si>
-    <t>Pricing &amp; terms</t>
-  </si>
-  <si>
-    <t>Internal &amp; BSP escalation</t>
-  </si>
-  <si>
-    <t>Refunds; penalties</t>
-  </si>
-  <si>
-    <t>Fines; suspension</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Issuances/2019/1048.pdf</t>
-  </si>
-  <si>
-    <t>CP-PH-02</t>
-  </si>
-  <si>
-    <t>Safety &amp; efficiency of payments</t>
-  </si>
-  <si>
-    <t>Reliable service access</t>
-  </si>
-  <si>
-    <t>System rules disclosure</t>
-  </si>
-  <si>
-    <t>Operator dispute rules</t>
-  </si>
-  <si>
-    <t>Corrective measures</t>
-  </si>
-  <si>
-    <t>Registration revocation</t>
-  </si>
-  <si>
-    <t>CP-ID-01</t>
-  </si>
-  <si>
-    <t>PBI No. 22/23/PBI/2020 on Payment Systems</t>
-  </si>
-  <si>
-    <t>User protection &amp; transparency</t>
-  </si>
-  <si>
-    <t>Fair access; complaint rights</t>
-  </si>
-  <si>
-    <t>Fees, risks</t>
-  </si>
-  <si>
-    <t>Complaint mechanism</t>
-  </si>
-  <si>
-    <t>Refunds</t>
-  </si>
-  <si>
-    <t>CP-ID-02</t>
-  </si>
-  <si>
-    <t>PADG No. 21/18/PADG/2019 (Consumer protection in payments)</t>
-  </si>
-  <si>
-    <t>Payment user protection</t>
-  </si>
-  <si>
-    <t>Right to complaint &amp; info</t>
-  </si>
-  <si>
-    <t>Service disclosures</t>
-  </si>
-  <si>
-    <t>Timely resolution</t>
-  </si>
-  <si>
-    <t>Compensation</t>
-  </si>
-  <si>
-    <t>Admin sanctions</t>
-  </si>
-  <si>
-    <t>CP-TH-01</t>
-  </si>
-  <si>
-    <t>User protection &amp; system safety</t>
-  </si>
-  <si>
-    <t>Service continuity</t>
-  </si>
-  <si>
-    <t>Fees &amp; risks</t>
-  </si>
-  <si>
-    <t>Dispute resolution</t>
-  </si>
-  <si>
-    <t>Corrective actions</t>
-  </si>
-  <si>
-    <t>CP-TH-02</t>
-  </si>
-  <si>
-    <t>Notification on Market Conduct for Payment Services</t>
-  </si>
-  <si>
-    <t>Fair treatment</t>
-  </si>
-  <si>
-    <t>Transparency; fairness</t>
-  </si>
-  <si>
-    <t>Clear disclosures</t>
-  </si>
-  <si>
-    <t>Complaints handling</t>
-  </si>
-  <si>
-    <t>Customer remedies</t>
-  </si>
-  <si>
-    <t>CP-VN-01</t>
-  </si>
-  <si>
-    <t>Protection of payment users</t>
-  </si>
-  <si>
-    <t>Transparency; service quality</t>
-  </si>
-  <si>
-    <t>Fees &amp; terms</t>
-  </si>
-  <si>
-    <t>Complaint resolution</t>
-  </si>
-  <si>
-    <t>Penalties</t>
-  </si>
-  <si>
-    <t>CP-VN-02</t>
-  </si>
-  <si>
-    <t>Circular 39/2014/TT-NHNN</t>
-  </si>
-  <si>
-    <t>Consumer rights in payments</t>
-  </si>
-  <si>
-    <t>Information access</t>
-  </si>
-  <si>
-    <t>Disclosure duties</t>
-  </si>
-  <si>
-    <t>Complaint timelines</t>
-  </si>
-  <si>
-    <t>CP-KH-01</t>
-  </si>
-  <si>
-    <t>Law on Banking and Financial Institutions</t>
-  </si>
-  <si>
-    <t>Depositor &amp; user protection</t>
-  </si>
-  <si>
-    <t>Right to information</t>
-  </si>
-  <si>
-    <t>Product transparency</t>
-  </si>
-  <si>
-    <t>Complaint handling</t>
-  </si>
-  <si>
-    <t>Redress</t>
-  </si>
-  <si>
-    <t>Fines; revocation</t>
-  </si>
-  <si>
-    <t>CP-LA-01</t>
-  </si>
-  <si>
-    <t>Law on Commercial Banks</t>
-  </si>
-  <si>
-    <t>Customer protection</t>
-  </si>
-  <si>
-    <t>Disclosure</t>
-  </si>
-  <si>
-    <t>Complaints</t>
-  </si>
-  <si>
-    <t>Remedies</t>
-  </si>
-  <si>
-    <t>CP-BN-01</t>
-  </si>
-  <si>
-    <t>Banking Order 2006</t>
-  </si>
-  <si>
-    <t>Consumer fairness</t>
-  </si>
-  <si>
-    <t>Transparency</t>
-  </si>
-  <si>
-    <t>Enforcement</t>
-  </si>
-  <si>
-    <t>CP-MM-01</t>
-  </si>
-  <si>
-    <t>Protection of mobile money users</t>
-  </si>
-  <si>
-    <t>Transaction transparency</t>
-  </si>
-  <si>
-    <t>Fees disclosure</t>
-  </si>
-  <si>
-    <t>Complaint procedures</t>
-  </si>
-  <si>
-    <t>Suspension</t>
-  </si>
-  <si>
-    <t>Data Governance Scope</t>
-  </si>
-  <si>
-    <t>Data Classification / Ownership</t>
-  </si>
-  <si>
-    <t>Data Security Requirements</t>
-  </si>
-  <si>
-    <t>Data Localisation</t>
-  </si>
-  <si>
-    <t>Access &amp; Sharing Rules</t>
-  </si>
-  <si>
-    <t>Breach Notification</t>
-  </si>
-  <si>
-    <t>Enforcement / Sanctions</t>
-  </si>
-  <si>
-    <t>DG-SG-01</t>
-  </si>
-  <si>
-    <t>Technology Risk Management (TRM) Guidelines</t>
-  </si>
-  <si>
-    <t>Financial institutions &amp; payment service providers</t>
-  </si>
-  <si>
-    <t>Institution accountable for customer data</t>
-  </si>
-  <si>
-    <t>Encryption, access controls, logging</t>
-  </si>
-  <si>
-    <t>No blanket localisation</t>
-  </si>
-  <si>
-    <t>Controlled sharing with safeguards</t>
-  </si>
-  <si>
-    <t>Yes – material incidents</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/regulation/guidelines/technology-risk-management-guidelines</t>
-  </si>
-  <si>
-    <t>DG-SG-02</t>
-  </si>
-  <si>
-    <t>Notice PSN06 on Cyber Hygiene</t>
-  </si>
-  <si>
-    <t>Payment service licensees</t>
-  </si>
-  <si>
-    <t>Licensee responsibility</t>
-  </si>
-  <si>
-    <t>MFA, patching, monitoring</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Limited access; least privilege</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/regulation/notices/psn06-cyber-hygiene</t>
-  </si>
-  <si>
-    <t>DG-MY-01</t>
-  </si>
-  <si>
-    <t>Licensed FIs &amp; PSPs</t>
-  </si>
-  <si>
-    <t>FI retains data accountability</t>
-  </si>
-  <si>
-    <t>Encryption, DR, access control</t>
-  </si>
-  <si>
-    <t>Conditional localisation</t>
-  </si>
-  <si>
-    <t>Sharing subject to BNM approval</t>
-  </si>
-  <si>
-    <t>Yes – within 24h</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my/documents/20124/938039/PolicyDocumentOnRMiT_20200707.pdf</t>
-  </si>
-  <si>
-    <t>DG-MY-02</t>
-  </si>
-  <si>
-    <t>PD on Management of Customer Information &amp; Permitted Disclosures</t>
-  </si>
-  <si>
-    <t>Customer financial information</t>
-  </si>
-  <si>
-    <t>Bank ownership with confidentiality duty</t>
-  </si>
-  <si>
-    <t>Safeguards mandated</t>
-  </si>
-  <si>
-    <t>Disclosure only as permitted</t>
-  </si>
-  <si>
-    <t>DG-PH-01</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 1122 (Data Governance)</t>
-  </si>
-  <si>
-    <t>BSFIs &amp; payment operators</t>
-  </si>
-  <si>
-    <t>Board-level accountability</t>
-  </si>
-  <si>
-    <t>Data classification, encryption</t>
-  </si>
-  <si>
-    <t>Controlled data sharing</t>
-  </si>
-  <si>
-    <t>Fines, restrictions</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Issuances/2021/1122.pdf</t>
-  </si>
-  <si>
-    <t>DG-PH-02</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 982 (IT Risk Management)</t>
-  </si>
-  <si>
-    <t>Financial institutions</t>
-  </si>
-  <si>
-    <t>Institutional accountability</t>
-  </si>
-  <si>
-    <t>Security &amp; access controls</t>
-  </si>
-  <si>
-    <t>Subject to BSP rules</t>
-  </si>
-  <si>
-    <t>DG-ID-01</t>
-  </si>
-  <si>
-    <t>Payment service providers</t>
-  </si>
-  <si>
-    <t>PSP accountable</t>
-  </si>
-  <si>
-    <t>Data security &amp; audit</t>
-  </si>
-  <si>
-    <t>Partial (system-based)</t>
-  </si>
-  <si>
-    <t>BI approval required</t>
-  </si>
-  <si>
-    <t>DG-ID-02</t>
-  </si>
-  <si>
-    <t>PBI No. 24/2024 on Cyber Resilience</t>
-  </si>
-  <si>
-    <t>PJP &amp; payment infrastructure</t>
-  </si>
-  <si>
-    <t>Operator accountability</t>
-  </si>
-  <si>
-    <t>Encryption, SOC, DR</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>Regulator-approved sharing</t>
-  </si>
-  <si>
-    <t>DG-TH-01</t>
-  </si>
-  <si>
-    <t>Notification on IT Risk Management</t>
-  </si>
-  <si>
-    <t>Payment operators &amp; banks</t>
-  </si>
-  <si>
-    <t>Operator responsibility</t>
-  </si>
-  <si>
-    <t>Controlled access</t>
-  </si>
-  <si>
-    <t>Fines/orders</t>
-  </si>
-  <si>
-    <t>DG-TH-02</t>
-  </si>
-  <si>
-    <t>Personal Data Protection Act (as applied to FIs)</t>
-  </si>
-  <si>
-    <t>Financial service providers</t>
-  </si>
-  <si>
-    <t>Data subject rights recognised</t>
-  </si>
-  <si>
-    <t>Security safeguards</t>
-  </si>
-  <si>
-    <t>Consent-based sharing</t>
-  </si>
-  <si>
-    <t>Civil/admin penalties</t>
-  </si>
-  <si>
-    <t>DG-VN-01</t>
-  </si>
-  <si>
-    <t>Circular No. 09/2020/TT-NHNN</t>
-  </si>
-  <si>
-    <t>Banks &amp; PSPs</t>
-  </si>
-  <si>
-    <t>Institution responsible</t>
-  </si>
-  <si>
-    <t>Access control, encryption</t>
-  </si>
-  <si>
-    <t>Yes (conditional)</t>
-  </si>
-  <si>
-    <t>SBV approval</t>
-  </si>
-  <si>
-    <t>DG-VN-02</t>
-  </si>
-  <si>
-    <t>Decree 53/2022/ND-CP (Cybersecurity)</t>
-  </si>
-  <si>
-    <t>Financial &amp; digital services</t>
-  </si>
-  <si>
-    <t>Security &amp; audit</t>
-  </si>
-  <si>
-    <t>Restricted cross-border transfer</t>
-  </si>
-  <si>
-    <t>DG-KH-01</t>
-  </si>
-  <si>
-    <t>Prakas on Cybersecurity for Banking Institutions</t>
-  </si>
-  <si>
-    <t>Security frameworks</t>
-  </si>
-  <si>
-    <t>Regulated sharing</t>
-  </si>
-  <si>
-    <t>DG-LA-01</t>
-  </si>
-  <si>
-    <t>Decision on IT &amp; Cybersecurity Management</t>
-  </si>
-  <si>
-    <t>Security &amp; DR</t>
-  </si>
-  <si>
-    <t>Controlled sharing</t>
-  </si>
-  <si>
-    <t>DG-BN-01</t>
-  </si>
-  <si>
-    <t>Guidelines on IT Risk Management</t>
-  </si>
-  <si>
-    <t>Restricted sharing</t>
-  </si>
-  <si>
-    <t>Enforcement actions</t>
-  </si>
-  <si>
-    <t>DG-MM-01</t>
-  </si>
-  <si>
-    <t>Cybersecurity Guidelines for Financial Institutions</t>
-  </si>
-  <si>
-    <t>Banks &amp; MFS providers</t>
-  </si>
-  <si>
-    <t>Regulator-approved</t>
-  </si>
-  <si>
-    <t>Covered Entities</t>
-  </si>
-  <si>
-    <t>Core AML-CFT Obligations</t>
-  </si>
-  <si>
-    <t>KYC / CDD Requirements</t>
-  </si>
-  <si>
-    <t>Ongoing Monitoring</t>
-  </si>
-  <si>
-    <t>STR / CTR Reporting</t>
-  </si>
-  <si>
-    <t>Sanctions / Enforcement</t>
-  </si>
-  <si>
-    <t>AML-SG-01</t>
-  </si>
-  <si>
-    <t>Notice PSN01 on Prevention of ML/TF</t>
-  </si>
-  <si>
-    <t>Risk-based AML-CFT program</t>
-  </si>
-  <si>
-    <t>Full CDD, enhanced CDD for high-risk</t>
-  </si>
-  <si>
-    <t>Transaction &amp; behaviour monitoring</t>
-  </si>
-  <si>
-    <t>STR to STRO; CTR as required</t>
-  </si>
-  <si>
-    <t>Civil penalties; licence action</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/regulation/notices/psn01-prevention-of-money-laundering-and-countering-the-financing-of-terrorism</t>
-  </si>
-  <si>
-    <t>AML-SG-02</t>
-  </si>
-  <si>
-    <t>Notice 626 on AML-CFT</t>
-  </si>
-  <si>
-    <t>Banks</t>
-  </si>
-  <si>
-    <t>Risk assessment, governance</t>
-  </si>
-  <si>
-    <t>CDD, beneficial ownership</t>
-  </si>
-  <si>
-    <t>Continuous monitoring</t>
-  </si>
-  <si>
-    <t>STR to STRO</t>
-  </si>
-  <si>
-    <t>Financial penalties</t>
-  </si>
-  <si>
-    <t>https://www.mas.gov.sg/regulation/notices/notice-626</t>
-  </si>
-  <si>
-    <t>AML-MY-01</t>
-  </si>
-  <si>
-    <t>AMLA 2001 (as administered by BNM)</t>
-  </si>
-  <si>
-    <t>Reporting institutions</t>
-  </si>
-  <si>
-    <t>Risk-based AML program</t>
-  </si>
-  <si>
-    <t>CDD, BO identification</t>
-  </si>
-  <si>
-    <t>Ongoing due diligence</t>
-  </si>
-  <si>
-    <t>STR / CTR to FIU</t>
-  </si>
-  <si>
-    <t>Fines; licence revocation</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my/amlcft</t>
-  </si>
-  <si>
-    <t>AML-MY-02</t>
-  </si>
-  <si>
-    <t>Policy Document on AML-CFT (Digital CDD)</t>
-  </si>
-  <si>
-    <t>FIs &amp; PSPs</t>
-  </si>
-  <si>
-    <t>Technology-enabled AML</t>
-  </si>
-  <si>
-    <t>e-KYC with safeguards</t>
-  </si>
-  <si>
-    <t>Monitoring</t>
-  </si>
-  <si>
-    <t>STR to FIU</t>
-  </si>
-  <si>
-    <t>https://www.bnm.gov.my/documents/20124/938039/AML_CFT_Policy_Document.pdf</t>
-  </si>
-  <si>
-    <t>AML-PH-01</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 1022 (AML Rules)</t>
-  </si>
-  <si>
-    <t>BSP-supervised FIs</t>
-  </si>
-  <si>
-    <t>AML systems &amp; controls</t>
-  </si>
-  <si>
-    <t>STR / CTR to AMLC</t>
-  </si>
-  <si>
-    <t>Monetary penalties</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Issuances/2018/1022.pdf</t>
-  </si>
-  <si>
-    <t>AML-PH-02</t>
-  </si>
-  <si>
-    <t>BSP Circular No. 1108 (Virtual Assets)</t>
-  </si>
-  <si>
-    <t>VASPs</t>
-  </si>
-  <si>
-    <t>AML for digital assets</t>
-  </si>
-  <si>
-    <t>CDD incl. VASP-specific</t>
-  </si>
-  <si>
-    <t>Transaction monitoring</t>
-  </si>
-  <si>
-    <t>STR / CTR</t>
-  </si>
-  <si>
-    <t>https://www.bsp.gov.ph/Regulations/Issuances/2021/1108.pdf</t>
-  </si>
-  <si>
-    <t>AML-ID-01</t>
-  </si>
-  <si>
-    <t>PBI No. 19/10/PBI/2017 on AML-CFT</t>
-  </si>
-  <si>
-    <t>Payment system providers</t>
-  </si>
-  <si>
-    <t>Risk-based AML</t>
-  </si>
-  <si>
-    <t>CDD, BO</t>
-  </si>
-  <si>
-    <t>STR to PPATK</t>
-  </si>
-  <si>
-    <t>AML-ID-02</t>
-  </si>
-  <si>
-    <t>PBI No. 23/6/PBI/2021 (Payment Systems)</t>
-  </si>
-  <si>
-    <t>PJP / PIP</t>
-  </si>
-  <si>
-    <t>AML-CFT compliance</t>
-  </si>
-  <si>
-    <t>Tiered CDD</t>
-  </si>
-  <si>
-    <t>AML-TH-01</t>
-  </si>
-  <si>
-    <t>Notification on AML-CFT for Payment Services</t>
-  </si>
-  <si>
-    <t>PSPs</t>
-  </si>
-  <si>
-    <t>AML controls &amp; reporting</t>
-  </si>
-  <si>
-    <t>CDD / ECDD</t>
-  </si>
-  <si>
-    <t>STR to AMLO</t>
-  </si>
-  <si>
-    <t>AML-TH-02</t>
-  </si>
-  <si>
-    <t>Payment operators</t>
-  </si>
-  <si>
-    <t>Compliance with AML laws</t>
-  </si>
-  <si>
-    <t>CDD alignment</t>
-  </si>
-  <si>
-    <t>Ongoing</t>
-  </si>
-  <si>
-    <t>STR as required</t>
-  </si>
-  <si>
-    <t>Legal sanctions</t>
-  </si>
-  <si>
-    <t>AML-VN-01</t>
-  </si>
-  <si>
-    <t>Circular No. 09/2023/TT-NHNN</t>
-  </si>
-  <si>
-    <t>Fines</t>
-  </si>
-  <si>
-    <t>AML-VN-02</t>
-  </si>
-  <si>
-    <t>Law on AML (as implemented by SBV)</t>
-  </si>
-  <si>
-    <t>Reporting entities</t>
-  </si>
-  <si>
-    <t>National AML framework</t>
-  </si>
-  <si>
-    <t>Administrative penalties</t>
-  </si>
-  <si>
-    <t>AML-KH-01</t>
-  </si>
-  <si>
-    <t>Prakas on AML-CFT for Banks &amp; FIs</t>
-  </si>
-  <si>
-    <t>CDD</t>
-  </si>
-  <si>
-    <t>STR to CAFIU</t>
-  </si>
-  <si>
-    <t>Licence action</t>
-  </si>
-  <si>
-    <t>AML-LA-01</t>
-  </si>
-  <si>
-    <t>AML Law No. 50/NA</t>
-  </si>
-  <si>
-    <t>AML compliance</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>AML-BN-01</t>
-  </si>
-  <si>
-    <t>AML Order 2012 (administered by AMBD)</t>
-  </si>
-  <si>
-    <t>AML governance</t>
-  </si>
-  <si>
-    <t>AML-MM-01</t>
-  </si>
-  <si>
-    <t>AML Law (as enforced by CBM)</t>
-  </si>
-  <si>
-    <t>AML programs</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2499,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,7 +3012,7 @@
         <v>101</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>678</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>102</v>
@@ -3107,7 +3107,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,82 +3180,82 @@
       <c r="A2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E2" s="4">
         <v>2022</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>106</v>
@@ -3264,92 +3264,92 @@
         <v>106</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E4" s="4">
         <v>2006</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4">
         <v>2010</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>106</v>
@@ -3358,7 +3358,7 @@
         <v>106</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>93</v>
@@ -3366,131 +3366,131 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E6" s="4">
         <v>2024</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E7" s="4">
         <v>2024</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>106</v>
@@ -3499,186 +3499,186 @@
         <v>106</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" s="4">
         <v>2025</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" s="4">
         <v>2025</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E11" s="4">
         <v>2024</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E12" s="4">
         <v>2023</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>106</v>
@@ -3687,92 +3687,92 @@
         <v>106</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="O12" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E13" s="4">
         <v>2020</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E14" s="4">
         <v>2021</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>106</v>
@@ -3781,92 +3781,92 @@
         <v>106</v>
       </c>
       <c r="N14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E15" s="4">
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="N15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" s="4">
         <v>2021</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>106</v>
@@ -3875,7 +3875,7 @@
         <v>106</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>115</v>
@@ -3883,84 +3883,84 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E17" s="4">
         <v>2022</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E18" s="4">
         <v>2022</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>106</v>
@@ -3969,139 +3969,139 @@
         <v>106</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="E19" s="4">
         <v>2024</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="N19" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>315</v>
       </c>
       <c r="E20" s="4">
         <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M20" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="E21" s="4">
         <v>2015</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>106</v>
@@ -4110,104 +4110,104 @@
         <v>106</v>
       </c>
       <c r="N21" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="E22" s="4">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="N22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E23" s="4">
         <v>2023</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>349</v>
-      </c>
       <c r="K23" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="M23" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4247,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,28 +4277,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -4321,22 +4321,22 @@
         <v>2019</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>20</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -4353,36 +4353,36 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>26</v>
@@ -4397,22 +4397,22 @@
         <v>2013</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>379</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>380</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>33</v>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>26</v>
@@ -4429,36 +4429,36 @@
         <v>27</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E5" s="4">
         <v>2019</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>41</v>
@@ -4467,36 +4467,36 @@
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E6" s="4">
         <v>2019</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>41</v>
@@ -4511,22 +4511,22 @@
         <v>2018</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>47</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>54</v>
@@ -4543,28 +4543,28 @@
         <v>55</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>60</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -4581,28 +4581,28 @@
         <v>55</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E9" s="4">
         <v>2019</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>60</v>
@@ -4610,7 +4610,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>67</v>
@@ -4625,22 +4625,22 @@
         <v>2017</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>73</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>67</v>
@@ -4657,28 +4657,28 @@
         <v>68</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E11" s="4">
         <v>2020</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>73</v>
@@ -4686,7 +4686,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>75</v>
@@ -4701,22 +4701,22 @@
         <v>2012</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>81</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>75</v>
@@ -4733,28 +4733,28 @@
         <v>76</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E13" s="4">
         <v>2014</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="J13" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>81</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>88</v>
@@ -4771,28 +4771,28 @@
         <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E14" s="4">
         <v>1999</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>453</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>93</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>95</v>
@@ -4809,28 +4809,28 @@
         <v>96</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" s="4">
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="K15" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>100</v>
@@ -4838,37 +4838,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>129</v>
+        <v>459</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>678</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E16" s="4">
         <v>2006</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>107</v>
@@ -4876,7 +4876,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>109</v>
@@ -4891,22 +4891,22 @@
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="K17" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>115</v>
@@ -4940,7 +4940,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4971,31 +4971,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>10</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -5012,39 +5012,39 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E2" s="9">
         <v>2021</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -5053,39 +5053,39 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E3" s="9">
         <v>2019</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>493</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>26</v>
@@ -5094,39 +5094,39 @@
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="9">
         <v>2020</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="M4" s="10" t="s">
         <v>501</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -5135,39 +5135,39 @@
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E5" s="9">
         <v>2018</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>508</v>
       </c>
       <c r="K5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>41</v>
@@ -5176,39 +5176,39 @@
         <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E6" s="9">
         <v>2021</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>512</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>513</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>514</v>
       </c>
       <c r="K6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L6" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>41</v>
@@ -5217,39 +5217,39 @@
         <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E7" s="9">
         <v>2017</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>522</v>
       </c>
       <c r="K7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>54</v>
@@ -5264,25 +5264,25 @@
         <v>2020</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>528</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>60</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>54</v>
@@ -5299,31 +5299,31 @@
         <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E9" s="9">
         <v>2024</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>535</v>
       </c>
       <c r="K9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>60</v>
@@ -5331,7 +5331,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -5340,31 +5340,31 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E10" s="9">
         <v>2020</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>540</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M10" s="10" t="s">
         <v>73</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -5381,31 +5381,31 @@
         <v>68</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E11" s="9">
         <v>2019</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>547</v>
       </c>
       <c r="K11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>73</v>
@@ -5413,7 +5413,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>75</v>
@@ -5422,31 +5422,31 @@
         <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E12" s="9">
         <v>2020</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>555</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>81</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>75</v>
@@ -5463,31 +5463,31 @@
         <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>559</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>81</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>88</v>
@@ -5504,31 +5504,31 @@
         <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>564</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>93</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>95</v>
@@ -5545,31 +5545,31 @@
         <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E15" s="9">
         <v>2021</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>568</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>100</v>
@@ -5577,40 +5577,40 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>678</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E16" s="9">
         <v>2018</v>
       </c>
       <c r="F16" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>520</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>107</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>109</v>
@@ -5627,31 +5627,31 @@
         <v>110</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E17" s="9">
         <v>2021</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>492</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="K17" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M17" s="10" t="s">
         <v>115</v>
@@ -5715,28 +5715,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>581</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>582</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
@@ -5744,7 +5744,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -5753,36 +5753,36 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E2" s="9">
         <v>2019</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -5791,36 +5791,36 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E3" s="9">
         <v>2015</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>26</v>
@@ -5829,36 +5829,36 @@
         <v>27</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E4" s="9">
         <v>2001</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>26</v>
@@ -5867,36 +5867,36 @@
         <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E5" s="9">
         <v>2020</v>
       </c>
       <c r="F5" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>615</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>41</v>
@@ -5905,36 +5905,36 @@
         <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E6" s="9">
         <v>2018</v>
       </c>
       <c r="F6" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>41</v>
@@ -5943,36 +5943,36 @@
         <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E7" s="9">
         <v>2021</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>54</v>
@@ -5981,28 +5981,28 @@
         <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E8" s="9">
         <v>2017</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J8" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>637</v>
-      </c>
       <c r="K8" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>60</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>54</v>
@@ -6019,28 +6019,28 @@
         <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E9" s="9">
         <v>2021</v>
       </c>
       <c r="F9" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>641</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>642</v>
-      </c>
       <c r="I9" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>60</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>67</v>
@@ -6057,28 +6057,28 @@
         <v>68</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E10" s="9">
         <v>2019</v>
       </c>
       <c r="F10" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J10" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>648</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>73</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>67</v>
@@ -6101,22 +6101,22 @@
         <v>2017</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>652</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="K11" s="8" t="s">
         <v>654</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>655</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>73</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>75</v>
@@ -6133,28 +6133,28 @@
         <v>76</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E12" s="9">
         <v>2023</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G12" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>636</v>
-      </c>
       <c r="I12" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J12" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>615</v>
-      </c>
       <c r="K12" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>81</v>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>75</v>
@@ -6171,28 +6171,28 @@
         <v>76</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>647</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>663</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>81</v>
@@ -6200,7 +6200,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>88</v>
@@ -6209,28 +6209,28 @@
         <v>89</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>667</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>668</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>93</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>95</v>
@@ -6247,28 +6247,28 @@
         <v>96</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E15" s="9">
         <v>2014</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>672</v>
-      </c>
       <c r="K15" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>100</v>
@@ -6276,37 +6276,37 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>129</v>
+        <v>678</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E16" s="9">
         <v>2012</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>107</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>109</v>
@@ -6323,28 +6323,28 @@
         <v>110</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E17" s="9">
         <v>2014</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>615</v>
-      </c>
       <c r="K17" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>115</v>

--- a/CBregs.xlsx
+++ b/CBregs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delgadokp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevynn_PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A5DF91-E8F5-44AB-BB27-F8AEAF24CF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FC5BB-3330-4B8C-AED8-CD812D6B9953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensing" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="667">
   <si>
     <t>Regulation ID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>Monetary Authority of Singapore</t>
-  </si>
-  <si>
     <t>Payment Services Act 2019</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Bank Negara Malaysia</t>
-  </si>
-  <si>
     <t>Financial Services Act 2013</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Bangko Sentral ng Pilipinas</t>
-  </si>
-  <si>
     <t>National Payment Systems Act (RA 11127)</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Bank Indonesia</t>
-  </si>
-  <si>
     <t>PBI No. 22/23/PBI/2020</t>
   </si>
   <si>
@@ -246,9 +234,6 @@
     <t>Thailand</t>
   </si>
   <si>
-    <t>Bank of Thailand</t>
-  </si>
-  <si>
     <t>Payment Systems Act B.E. 2560</t>
   </si>
   <si>
@@ -270,9 +255,6 @@
     <t>Vietnam</t>
   </si>
   <si>
-    <t>State Bank of Vietnam</t>
-  </si>
-  <si>
     <t>Decree 101/2012/ND-CP</t>
   </si>
   <si>
@@ -309,9 +291,6 @@
     <t>Cambodia</t>
   </si>
   <si>
-    <t>National Bank of Cambodia</t>
-  </si>
-  <si>
     <t>Prakas on PSP Management</t>
   </si>
   <si>
@@ -330,9 +309,6 @@
     <t>Laos</t>
   </si>
   <si>
-    <t>Bank of the Lao PDR</t>
-  </si>
-  <si>
     <t>Decision No. 288/BOL</t>
   </si>
   <si>
@@ -348,9 +324,6 @@
     <t>LIC-BN-01</t>
   </si>
   <si>
-    <t>Autoriti Monetari Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Payment and Settlement Systems Order</t>
   </si>
   <si>
@@ -372,9 +345,6 @@
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Central Bank of Myanmar</t>
-  </si>
-  <si>
     <t>Mobile Financial Services Regulation</t>
   </si>
   <si>
@@ -708,9 +678,6 @@
     <t>FRM10</t>
   </si>
   <si>
-    <t>Otoritas Jasa Keuangan (OJK)</t>
-  </si>
-  <si>
     <t>POJK No.12/POJK.03/2024 Anti-Fraud Strategy</t>
   </si>
   <si>
@@ -744,12 +711,6 @@
     <t>FRM11</t>
   </si>
   <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>National Assembly; Bank of the Lao PDR (BOL)</t>
-  </si>
-  <si>
     <t>Law on Payment System (Amended) No. 32/NA</t>
   </si>
   <si>
@@ -2077,6 +2038,9 @@
   </si>
   <si>
     <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bank of the Lao PDR (BOL)</t>
   </si>
 </sst>
 </file>
@@ -2499,7 +2463,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C20" sqref="B20:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,524 +2524,527 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="2">
         <v>2019</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E3" s="2">
         <v>2019</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>2013</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5" s="2">
         <v>2011</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="2">
         <v>2018</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2">
         <v>2020</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2">
         <v>2021</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>2017</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E11" s="2">
         <v>2012</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2">
         <v>2024</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2">
         <v>2017</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>666</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E14" s="2">
         <v>2020</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2">
         <v>2015</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E16" s="2">
         <v>2016</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B21:C30">
+    <sortCondition ref="B21:B30"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1" xr:uid="{49116F7C-5AC7-4DCA-9F08-8B4040CFDA7F}"/>
     <hyperlink ref="K3" r:id="rId2" xr:uid="{EEA2E664-378F-45BA-A63A-DCEDDC40433F}"/>
@@ -3107,7 +3074,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C35" sqref="B25:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3140,1074 +3107,1074 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4">
         <v>2022</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E4" s="4">
         <v>2006</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E5" s="4">
         <v>2010</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4">
         <v>2024</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E7" s="4">
         <v>2024</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="E9" s="4">
         <v>2025</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E10" s="4">
         <v>2025</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E11" s="4">
         <v>2024</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>235</v>
+        <v>666</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="E12" s="4">
         <v>2023</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E13" s="4">
         <v>2020</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="E14" s="4">
         <v>2021</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E15" s="4">
         <v>2016</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E16" s="4">
         <v>2021</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="K16" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E17" s="4">
         <v>2022</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E18" s="4">
         <v>2022</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="O18" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E19" s="4">
         <v>2024</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="E20" s="4">
         <v>2018</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="E21" s="4">
         <v>2015</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E22" s="4">
         <v>2016</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="E23" s="4">
         <v>2023</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="O23" s="3" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4247,7 +4214,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="C30" sqref="B20:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4277,639 +4244,639 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E2" s="4">
         <v>2019</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>287</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="E3" s="4">
         <v>2018</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>2013</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="E5" s="4">
         <v>2019</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E6" s="4">
         <v>2019</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>268</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="4">
         <v>2018</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="E8" s="4">
         <v>2020</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="E9" s="4">
         <v>2019</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>300</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E11" s="4">
         <v>2020</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4">
         <v>2012</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="E13" s="4">
         <v>2014</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E14" s="4">
         <v>1999</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>96</v>
+        <v>666</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="E15" s="4">
         <v>2018</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="E16" s="4">
         <v>2006</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>110</v>
+        <v>251</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4">
         <v>2016</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4940,14 +4907,14 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C30" sqref="B20:C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
     <col min="4" max="4" width="63.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="45.85546875" bestFit="1" customWidth="1"/>
@@ -4971,31 +4938,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>10</v>
@@ -5003,658 +4970,658 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E2" s="9">
         <v>2021</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E3" s="9">
         <v>2019</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E4" s="9">
         <v>2020</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="E5" s="9">
         <v>2018</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="E6" s="9">
         <v>2021</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="E7" s="9">
         <v>2017</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9">
         <v>2020</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="E9" s="9">
         <v>2024</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="E10" s="9">
         <v>2020</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="E11" s="9">
         <v>2019</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="E12" s="9">
         <v>2020</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>563</v>
-      </c>
       <c r="K14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="E15" s="9">
         <v>2021</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>102</v>
+        <v>665</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E16" s="9">
         <v>2018</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>571</v>
-      </c>
       <c r="M16" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="E17" s="9">
         <v>2021</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -5682,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFA0510-3F9F-419F-ACB6-8199297CBF7A}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5715,639 +5682,727 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>13</v>
+      <c r="C2" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="E2" s="9">
         <v>2019</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>13</v>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="E3" s="9">
         <v>2015</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="E4" s="9">
         <v>2001</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="E5" s="9">
         <v>2020</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="E6" s="9">
         <v>2018</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E7" s="9">
         <v>2021</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="E8" s="9">
         <v>2017</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E9" s="9">
         <v>2021</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E10" s="9">
         <v>2019</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>300</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E11" s="9">
         <v>2017</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="E12" s="9">
         <v>2023</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>76</v>
+        <v>70</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>321</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="E13" s="9">
         <v>2022</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="E14" s="9">
         <v>2020</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E15" s="9">
         <v>2014</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>102</v>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="E16" s="9">
         <v>2012</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E17" s="9">
         <v>2014</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>665</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>115</v>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/CBregs.xlsx
+++ b/CBregs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevynn_PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29FC5BB-3330-4B8C-AED8-CD812D6B9953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DD9FB1-C438-49A2-BF6F-27A94EBBDF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="15480" firstSheet="1" activeTab="4" xr2:uid="{ED09BD77-ED92-49E3-B88C-9FAD9BDC366F}"/>
   </bookViews>
   <sheets>
     <sheet name="Licensing" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="667">
   <si>
     <t>Regulation ID</t>
   </si>
@@ -5651,8 +5651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFA0510-3F9F-419F-ACB6-8199297CBF7A}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D31" sqref="A20:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6317,93 +6317,49 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>665</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>119</v>
-      </c>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>666</v>
-      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>231</v>
-      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>251</v>
-      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>300</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>321</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
